--- a/config_1.5/permission_server_config.xlsx
+++ b/config_1.5/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -8974,19 +8974,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>签到权限-只有欢乐捕鱼和冲金鸡官方渠道展示</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cjj_all</t>
-  </si>
-  <si>
-    <t>"cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cjj_official</t>
@@ -9339,6 +9331,14 @@
   </si>
   <si>
     <t>"vivo","xiaomi","yyb",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao","cjj_dandanzhuan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao","cjj_dandanzhuan",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11401,7 +11401,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11437,7 +11437,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="C73" s="57">
         <v>22</v>
@@ -11576,7 +11576,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -14723,10 +14723,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="27" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B429" s="27" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="C429" s="3">
         <v>344</v>
@@ -14734,10 +14734,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="27" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B430" s="27" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="C430" s="3">
         <v>345</v>
@@ -14745,10 +14745,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="27" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C432" s="3">
         <v>346</v>
@@ -14756,10 +14756,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="27" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B434" s="27" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="C434" s="3">
         <v>347</v>
@@ -14767,10 +14767,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="27" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="B435" s="27" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="C435" s="3">
         <v>348</v>
@@ -14778,10 +14778,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="27" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B437" s="27" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="C437" s="3">
         <v>351</v>
@@ -14789,10 +14789,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="27" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B438" s="27" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="C438" s="3">
         <v>352</v>
@@ -14800,10 +14800,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="27" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B440" s="27" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C440" s="3">
         <v>353</v>
@@ -14811,10 +14811,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="3" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C442" s="3">
         <v>354</v>
@@ -14822,10 +14822,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B444" s="27" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="C444" s="3">
         <v>355</v>
@@ -24782,7 +24782,7 @@
         <v>1857</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -25165,7 +25165,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1686</v>
@@ -26214,7 +26214,7 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
@@ -26231,10 +26231,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26263,10 +26263,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D338" s="30" t="s">
         <v>1952</v>
-      </c>
-      <c r="D338" s="30" t="s">
-        <v>1954</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26297,10 +26297,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="79" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G339" s="26">
         <v>356</v>
@@ -26329,10 +26329,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="79" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G340" s="26">
         <v>357</v>
@@ -26361,10 +26361,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="79" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G341" s="26">
         <v>358</v>
@@ -26393,10 +26393,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="79" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G342" s="26">
         <v>359</v>
@@ -26425,10 +26425,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="79" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G343" s="26">
         <v>360</v>
@@ -26457,10 +26457,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="79" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G344" s="26">
         <v>361</v>
@@ -26489,10 +26489,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="79" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G345" s="26">
         <v>362</v>
@@ -26521,10 +26521,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="79" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D346" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G346" s="26">
         <v>363</v>
@@ -26553,10 +26553,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="79" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D347" s="30" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G347" s="26">
         <v>364</v>
@@ -26585,10 +26585,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="30" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D348" s="92" t="s">
         <v>2011</v>
-      </c>
-      <c r="D348" s="92" t="s">
-        <v>2013</v>
       </c>
       <c r="G348" s="26">
         <v>365</v>
@@ -26617,10 +26617,10 @@
         <v>1</v>
       </c>
       <c r="C349" s="30" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D349" s="92" t="s">
         <v>2012</v>
-      </c>
-      <c r="D349" s="92" t="s">
-        <v>2014</v>
       </c>
       <c r="G349" s="26">
         <v>366</v>
@@ -26654,7 +26654,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I929"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C811" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -28855,7 +28855,7 @@
         <v>863</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -30153,7 +30153,7 @@
         <v>1043</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="E150" s="112">
         <v>2</v>
@@ -30162,7 +30162,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="113" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -30845,7 +30845,7 @@
         <v>1043</v>
       </c>
       <c r="D180" s="94" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -31277,7 +31277,7 @@
         <v>1043</v>
       </c>
       <c r="D198" s="105" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E198" s="103">
         <v>2</v>
@@ -35458,7 +35458,7 @@
         <v>1166</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E378" s="8">
         <v>2</v>
@@ -40782,7 +40782,7 @@
         <v>1166</v>
       </c>
       <c r="D600" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E600" s="14">
         <v>2</v>
@@ -40932,7 +40932,7 @@
         <v>1166</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E606" s="14">
         <v>2</v>
@@ -41082,7 +41082,7 @@
         <v>1166</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E612" s="14">
         <v>2</v>
@@ -41232,7 +41232,7 @@
         <v>1166</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E618" s="14">
         <v>2</v>
@@ -41382,7 +41382,7 @@
         <v>1166</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -41532,7 +41532,7 @@
         <v>1166</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E630" s="14">
         <v>2</v>
@@ -44138,7 +44138,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
@@ -44338,7 +44338,7 @@
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
@@ -45879,7 +45879,7 @@
         <v>1043</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -45954,7 +45954,7 @@
         <v>1043</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -46304,7 +46304,7 @@
         <v>1043</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -46429,7 +46429,7 @@
         <v>1043</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E827" s="9">
         <v>5</v>
@@ -46479,7 +46479,7 @@
         <v>1043</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -46604,7 +46604,7 @@
         <v>1043</v>
       </c>
       <c r="D834" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E834" s="9">
         <v>5</v>
@@ -46654,7 +46654,7 @@
         <v>1043</v>
       </c>
       <c r="D836" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -46704,7 +46704,7 @@
         <v>1043</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E838" s="9">
         <v>2</v>
@@ -46754,7 +46754,7 @@
         <v>1043</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E840" s="9">
         <v>5</v>
@@ -46854,7 +46854,7 @@
         <v>1043</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E844" s="14">
         <v>5</v>
@@ -46908,7 +46908,7 @@
         <v>1170</v>
       </c>
       <c r="D846" s="10" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E846" s="8">
         <v>5</v>
@@ -46933,7 +46933,7 @@
         <v>1170</v>
       </c>
       <c r="D847" s="10" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E847" s="8">
         <v>2</v>
@@ -47112,7 +47112,7 @@
         <v>1043</v>
       </c>
       <c r="D854" s="110" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E854" s="110">
         <v>2</v>
@@ -47231,7 +47231,7 @@
         <v>1170</v>
       </c>
       <c r="D859" s="15" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="E859" s="8">
         <v>5</v>
@@ -47281,7 +47281,7 @@
         <v>1170</v>
       </c>
       <c r="D861" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E861" s="14">
         <v>2</v>
@@ -47306,7 +47306,7 @@
         <v>863</v>
       </c>
       <c r="D862" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="E862" s="8">
         <v>5</v>
@@ -47356,7 +47356,7 @@
         <v>1043</v>
       </c>
       <c r="D864" s="10" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="E864" s="8">
         <v>2</v>
@@ -47406,7 +47406,7 @@
         <v>863</v>
       </c>
       <c r="D866" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="E866" s="8">
         <v>2</v>
@@ -47456,7 +47456,7 @@
         <v>1043</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="E868" s="8">
         <v>2</v>
@@ -47506,7 +47506,7 @@
         <v>1166</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="E870" s="8">
         <v>2</v>
@@ -47515,7 +47515,7 @@
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="H870" s="8"/>
       <c r="I870" s="8"/>
@@ -47531,7 +47531,7 @@
         <v>1043</v>
       </c>
       <c r="D871" s="9" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="E871" s="9">
         <v>2</v>
@@ -47540,7 +47540,7 @@
         <v>2</v>
       </c>
       <c r="G871" s="53" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
@@ -47556,7 +47556,7 @@
         <v>1043</v>
       </c>
       <c r="D872" s="53" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="E872" s="9">
         <v>2</v>
@@ -47565,7 +47565,7 @@
         <v>3</v>
       </c>
       <c r="G872" s="53" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="873" spans="1:9" s="8" customFormat="1">
@@ -47579,7 +47579,7 @@
         <v>1043</v>
       </c>
       <c r="D873" s="53" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="E873" s="9">
         <v>2</v>
@@ -47588,7 +47588,7 @@
         <v>4</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="874" spans="1:9" s="8" customFormat="1">
@@ -47602,7 +47602,7 @@
         <v>1170</v>
       </c>
       <c r="D874" s="15" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
@@ -47625,7 +47625,7 @@
         <v>1166</v>
       </c>
       <c r="D875" s="15" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="E875" s="8">
         <v>5</v>
@@ -47657,7 +47657,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="8" customFormat="1">
@@ -47703,7 +47703,7 @@
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -47726,7 +47726,7 @@
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="880" spans="1:9">
@@ -47737,7 +47737,7 @@
         <v>352</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="D880" s="15" t="s">
         <v>1624</v>
@@ -47749,7 +47749,7 @@
         <v>2</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="H880" s="8"/>
       <c r="I880" s="8"/>
@@ -47774,7 +47774,7 @@
         <v>3</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="H881" s="8"/>
       <c r="I881" s="8"/>
@@ -47787,19 +47787,19 @@
         <v>353</v>
       </c>
       <c r="C882" s="10" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D882" s="15" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E882" s="8">
+        <v>2</v>
+      </c>
+      <c r="F882" s="8">
+        <v>1</v>
+      </c>
+      <c r="G882" s="10" t="s">
         <v>1979</v>
-      </c>
-      <c r="D882" s="15" t="s">
-        <v>1980</v>
-      </c>
-      <c r="E882" s="8">
-        <v>2</v>
-      </c>
-      <c r="F882" s="8">
-        <v>1</v>
-      </c>
-      <c r="G882" s="10" t="s">
-        <v>1981</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -47824,7 +47824,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -47840,7 +47840,7 @@
         <v>1043</v>
       </c>
       <c r="D884" s="10" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="E884" s="8">
         <v>5</v>
@@ -47874,7 +47874,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -47924,7 +47924,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -47940,7 +47940,7 @@
         <v>1166</v>
       </c>
       <c r="D888" s="15" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="E888" s="14">
         <v>2</v>
@@ -47965,7 +47965,7 @@
         <v>1166</v>
       </c>
       <c r="D889" s="53" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E889" s="9">
         <v>5</v>
@@ -47974,7 +47974,7 @@
         <v>1</v>
       </c>
       <c r="G889" s="53" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -47999,7 +47999,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="53" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -48015,7 +48015,7 @@
         <v>1166</v>
       </c>
       <c r="D891" s="53" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E891" s="9">
         <v>5</v>
@@ -48024,7 +48024,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="53" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -48049,7 +48049,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="53" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -48074,7 +48074,7 @@
         <v>1</v>
       </c>
       <c r="G893" s="53" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -48088,7 +48088,7 @@
         <v>1166</v>
       </c>
       <c r="D894" s="53" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E894" s="9">
         <v>5</v>
@@ -48097,7 +48097,7 @@
         <v>1</v>
       </c>
       <c r="G894" s="53" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
@@ -48122,7 +48122,7 @@
         <v>1</v>
       </c>
       <c r="G895" s="53" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -48147,7 +48147,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="53" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -48163,7 +48163,7 @@
         <v>1166</v>
       </c>
       <c r="D897" s="53" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E897" s="9">
         <v>5</v>
@@ -48172,7 +48172,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="53" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -48197,7 +48197,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="53" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -48213,7 +48213,7 @@
         <v>1166</v>
       </c>
       <c r="D899" s="15" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E899" s="14">
         <v>2</v>
@@ -48222,7 +48222,7 @@
         <v>1</v>
       </c>
       <c r="G899" s="15" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -48247,7 +48247,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -48263,7 +48263,7 @@
         <v>1166</v>
       </c>
       <c r="D901" s="15" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E901" s="14">
         <v>2</v>
@@ -48272,7 +48272,7 @@
         <v>1</v>
       </c>
       <c r="G901" s="15" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="8" customFormat="1">
@@ -48295,7 +48295,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
@@ -48318,7 +48318,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -48332,7 +48332,7 @@
         <v>1166</v>
       </c>
       <c r="D904" s="15" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E904" s="14">
         <v>2</v>
@@ -48341,7 +48341,7 @@
         <v>1</v>
       </c>
       <c r="G904" s="15" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -48364,7 +48364,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -48387,7 +48387,7 @@
         <v>1</v>
       </c>
       <c r="G906" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -48401,7 +48401,7 @@
         <v>1166</v>
       </c>
       <c r="D907" s="15" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E907" s="14">
         <v>2</v>
@@ -48410,7 +48410,7 @@
         <v>1</v>
       </c>
       <c r="G907" s="15" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -48433,7 +48433,7 @@
         <v>1</v>
       </c>
       <c r="G908" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -48447,16 +48447,16 @@
         <v>1166</v>
       </c>
       <c r="D909" s="15" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E909" s="14">
+        <v>2</v>
+      </c>
+      <c r="F909" s="14">
+        <v>1</v>
+      </c>
+      <c r="G909" s="15" t="s">
         <v>1994</v>
-      </c>
-      <c r="E909" s="14">
-        <v>2</v>
-      </c>
-      <c r="F909" s="14">
-        <v>1</v>
-      </c>
-      <c r="G909" s="15" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -48479,7 +48479,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -48493,7 +48493,7 @@
         <v>1166</v>
       </c>
       <c r="D911" s="15" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E911" s="14">
         <v>2</v>
@@ -48502,7 +48502,7 @@
         <v>2</v>
       </c>
       <c r="G911" s="15" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -48525,7 +48525,7 @@
         <v>2</v>
       </c>
       <c r="G912" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -48548,7 +48548,7 @@
         <v>1</v>
       </c>
       <c r="G913" s="15" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -48571,7 +48571,7 @@
         <v>1</v>
       </c>
       <c r="G914" s="15" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1"/>
@@ -48601,7 +48601,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -48736,7 +48736,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>895</v>
@@ -48759,7 +48759,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1750</v>
@@ -48788,7 +48788,7 @@
         <v>895</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -48805,13 +48805,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1932</v>
+        <v>2016</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -48828,13 +48828,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1935</v>
+        <v>2017</v>
       </c>
       <c r="E10">
         <v>2</v>

--- a/config_1.5/permission_server_config.xlsx
+++ b/config_1.5/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4684" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4691" uniqueCount="2020">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8617,10 +8617,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_034_xyxfl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>share_condition</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9340,6 +9336,17 @@
   <si>
     <t>"cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao","cjj_dandanzhuan",</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_034_xyxfl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非CPS</t>
   </si>
 </sst>
 </file>
@@ -10196,7 +10203,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
+      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11401,7 +11408,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11437,7 +11444,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C73" s="57">
         <v>22</v>
@@ -11576,7 +11583,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -12762,7 +12769,7 @@
     </row>
     <row r="200" spans="1:10" s="65" customFormat="1">
       <c r="A200" s="64" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B200" s="64" t="s">
         <v>330</v>
@@ -14116,7 +14123,7 @@
         <v>1387</v>
       </c>
       <c r="B351" s="27" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C351" s="3">
         <v>226</v>
@@ -14179,10 +14186,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="27" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B357" s="27" t="s">
         <v>1842</v>
-      </c>
-      <c r="B357" s="27" t="s">
-        <v>1843</v>
       </c>
       <c r="C357" s="3">
         <v>8</v>
@@ -14190,10 +14197,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="27" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B358" s="27" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C358" s="3">
         <v>343</v>
@@ -14553,10 +14560,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="27" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B409" s="27" t="s">
         <v>1867</v>
-      </c>
-      <c r="B409" s="27" t="s">
-        <v>1868</v>
       </c>
       <c r="C409" s="3">
         <v>339</v>
@@ -14564,10 +14571,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B411" s="3" t="s">
         <v>1872</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>1873</v>
       </c>
       <c r="C411" s="3">
         <v>326</v>
@@ -14575,37 +14582,37 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="34" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B413" s="10" t="s">
         <v>1874</v>
-      </c>
-      <c r="B413" s="10" t="s">
-        <v>1875</v>
       </c>
       <c r="C413" s="9"/>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="18" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B414" s="10" t="s">
         <v>1876</v>
-      </c>
-      <c r="B414" s="10" t="s">
-        <v>1877</v>
       </c>
       <c r="C414" s="9"/>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="18" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B415" s="10" t="s">
         <v>1878</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>1879</v>
       </c>
       <c r="C415" s="9"/>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="18" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B416" s="10" t="s">
         <v>1880</v>
-      </c>
-      <c r="B416" s="10" t="s">
-        <v>1881</v>
       </c>
       <c r="C416" s="57">
         <v>22</v>
@@ -14613,10 +14620,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="18" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B417" s="10" t="s">
         <v>1882</v>
-      </c>
-      <c r="B417" s="10" t="s">
-        <v>1883</v>
       </c>
       <c r="C417" s="57">
         <v>22</v>
@@ -14624,10 +14631,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="18" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B418" s="10" t="s">
         <v>1884</v>
-      </c>
-      <c r="B418" s="10" t="s">
-        <v>1885</v>
       </c>
       <c r="C418" s="57">
         <v>22</v>
@@ -14635,10 +14642,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="18" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B419" s="10" t="s">
         <v>1886</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>1887</v>
       </c>
       <c r="C419" s="57">
         <v>23</v>
@@ -14646,10 +14653,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="18" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B420" s="10" t="s">
         <v>1888</v>
-      </c>
-      <c r="B420" s="10" t="s">
-        <v>1889</v>
       </c>
       <c r="C420" s="57">
         <v>23</v>
@@ -14657,10 +14664,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="18" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B421" s="10" t="s">
         <v>1890</v>
-      </c>
-      <c r="B421" s="10" t="s">
-        <v>1891</v>
       </c>
       <c r="C421" s="9">
         <v>24</v>
@@ -14668,10 +14675,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="18" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B422" s="10" t="s">
         <v>1892</v>
-      </c>
-      <c r="B422" s="10" t="s">
-        <v>1893</v>
       </c>
       <c r="C422" s="9">
         <v>25</v>
@@ -14679,10 +14686,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="18" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B423" s="10" t="s">
         <v>1894</v>
-      </c>
-      <c r="B423" s="10" t="s">
-        <v>1895</v>
       </c>
       <c r="C423" s="9">
         <v>26</v>
@@ -14690,10 +14697,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="18" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B424" s="10" t="s">
         <v>1896</v>
-      </c>
-      <c r="B424" s="10" t="s">
-        <v>1897</v>
       </c>
       <c r="C424" s="9">
         <v>26</v>
@@ -14701,10 +14708,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="18" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B425" s="10" t="s">
         <v>1898</v>
-      </c>
-      <c r="B425" s="10" t="s">
-        <v>1899</v>
       </c>
       <c r="C425" s="9">
         <v>26</v>
@@ -14712,10 +14719,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="27" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B427" s="27" t="s">
         <v>1903</v>
-      </c>
-      <c r="B427" s="27" t="s">
-        <v>1904</v>
       </c>
       <c r="C427" s="3">
         <v>342</v>
@@ -14723,10 +14730,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="27" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B429" s="27" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C429" s="3">
         <v>344</v>
@@ -14734,10 +14741,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="27" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B430" s="27" t="s">
         <v>1959</v>
-      </c>
-      <c r="B430" s="27" t="s">
-        <v>1960</v>
       </c>
       <c r="C430" s="3">
         <v>345</v>
@@ -14745,10 +14752,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="27" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="C432" s="3">
         <v>346</v>
@@ -14756,10 +14763,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="27" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B434" s="27" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C434" s="3">
         <v>347</v>
@@ -14767,10 +14774,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="27" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B435" s="27" t="s">
         <v>1948</v>
-      </c>
-      <c r="B435" s="27" t="s">
-        <v>1949</v>
       </c>
       <c r="C435" s="3">
         <v>348</v>
@@ -14778,10 +14785,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="27" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B437" s="27" t="s">
         <v>1964</v>
-      </c>
-      <c r="B437" s="27" t="s">
-        <v>1965</v>
       </c>
       <c r="C437" s="3">
         <v>351</v>
@@ -14789,10 +14796,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="27" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B438" s="27" t="s">
         <v>1966</v>
-      </c>
-      <c r="B438" s="27" t="s">
-        <v>1967</v>
       </c>
       <c r="C438" s="3">
         <v>352</v>
@@ -14800,10 +14807,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="27" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B440" s="27" t="s">
         <v>1975</v>
-      </c>
-      <c r="B440" s="27" t="s">
-        <v>1976</v>
       </c>
       <c r="C440" s="3">
         <v>353</v>
@@ -14811,10 +14818,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B442" s="3" t="s">
         <v>1982</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>1983</v>
       </c>
       <c r="C442" s="3">
         <v>354</v>
@@ -14822,10 +14829,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B444" s="27" t="s">
         <v>1988</v>
-      </c>
-      <c r="B444" s="27" t="s">
-        <v>1989</v>
       </c>
       <c r="C444" s="3">
         <v>355</v>
@@ -14845,13 +14852,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O349"/>
+  <dimension ref="A1:O350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D310" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E322" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G326" sqref="G326"/>
+      <selection pane="bottomRight" activeCell="F350" sqref="F350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15033,7 +15040,7 @@
         <v>1509</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -21448,7 +21455,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="44" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>801</v>
@@ -24700,7 +24707,7 @@
         <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1">
@@ -24734,7 +24741,7 @@
         <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1">
@@ -24768,7 +24775,7 @@
         <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1">
@@ -24779,10 +24786,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -24802,7 +24809,7 @@
         <v>1605542400</v>
       </c>
       <c r="L292" s="109" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -25165,7 +25172,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1686</v>
@@ -25935,7 +25942,7 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D328" s="26" t="s">
         <v>1828</v>
@@ -26014,7 +26021,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -26063,7 +26070,7 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>1839</v>
+        <v>2017</v>
       </c>
       <c r="D332" s="101" t="s">
         <v>1836</v>
@@ -26097,10 +26104,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -26112,7 +26119,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -26129,10 +26136,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -26163,10 +26170,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D335" s="16" t="s">
         <v>1905</v>
-      </c>
-      <c r="D335" s="16" t="s">
-        <v>1906</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -26186,7 +26193,7 @@
         <v>1606176000</v>
       </c>
       <c r="L335" s="16" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1">
@@ -26197,10 +26204,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D336" s="16" t="s">
         <v>1908</v>
-      </c>
-      <c r="D336" s="16" t="s">
-        <v>1909</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -26214,13 +26221,13 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
       </c>
       <c r="L336" s="16" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -26231,10 +26238,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26263,10 +26270,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26297,10 +26304,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="79" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D339" s="30" t="s">
         <v>1990</v>
-      </c>
-      <c r="D339" s="30" t="s">
-        <v>1991</v>
       </c>
       <c r="G339" s="26">
         <v>356</v>
@@ -26329,10 +26336,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="79" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G340" s="26">
         <v>357</v>
@@ -26361,10 +26368,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="79" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G341" s="26">
         <v>358</v>
@@ -26393,10 +26400,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="79" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G342" s="26">
         <v>359</v>
@@ -26425,10 +26432,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="79" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G343" s="26">
         <v>360</v>
@@ -26457,10 +26464,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="79" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G344" s="26">
         <v>361</v>
@@ -26489,10 +26496,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="79" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G345" s="26">
         <v>362</v>
@@ -26521,10 +26528,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="79" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D346" s="30" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G346" s="26">
         <v>363</v>
@@ -26553,10 +26560,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="79" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D347" s="30" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G347" s="26">
         <v>364</v>
@@ -26585,10 +26592,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="30" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D348" s="92" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G348" s="26">
         <v>365</v>
@@ -26617,10 +26624,10 @@
         <v>1</v>
       </c>
       <c r="C349" s="30" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D349" s="92" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G349" s="26">
         <v>366</v>
@@ -26639,6 +26646,40 @@
       </c>
       <c r="L349" s="30" t="s">
         <v>1189</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" s="22" customFormat="1">
+      <c r="A350" s="17">
+        <v>349</v>
+      </c>
+      <c r="B350" s="17">
+        <v>1</v>
+      </c>
+      <c r="C350" s="16" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D350" s="16" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E350" s="17"/>
+      <c r="F350" s="17"/>
+      <c r="G350" s="17">
+        <v>367</v>
+      </c>
+      <c r="H350" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I350" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J350" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="K350" s="17">
+        <v>1604332800</v>
+      </c>
+      <c r="L350" s="16" t="s">
+        <v>1838</v>
       </c>
     </row>
   </sheetData>
@@ -26654,11 +26695,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I929"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C811" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C895" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A829" sqref="A829"/>
+      <selection pane="bottomRight" activeCell="D915" sqref="D915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28855,7 +28896,7 @@
         <v>863</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -30078,7 +30119,7 @@
         <v>1043</v>
       </c>
       <c r="D147" s="113" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E147" s="112">
         <v>2</v>
@@ -30153,7 +30194,7 @@
         <v>1043</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E150" s="112">
         <v>2</v>
@@ -30162,7 +30203,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="113" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -30822,7 +30863,7 @@
         <v>1043</v>
       </c>
       <c r="D179" s="94" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -30845,7 +30886,7 @@
         <v>1043</v>
       </c>
       <c r="D180" s="94" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -30854,7 +30895,7 @@
         <v>5</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="8" customFormat="1">
@@ -31252,7 +31293,7 @@
         <v>1043</v>
       </c>
       <c r="D197" s="105" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E197" s="103">
         <v>2</v>
@@ -31277,7 +31318,7 @@
         <v>1043</v>
       </c>
       <c r="D198" s="105" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E198" s="103">
         <v>2</v>
@@ -31286,7 +31327,7 @@
         <v>5</v>
       </c>
       <c r="G198" s="104" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
@@ -35458,7 +35499,7 @@
         <v>1166</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E378" s="8">
         <v>2</v>
@@ -40682,7 +40723,7 @@
         <v>1166</v>
       </c>
       <c r="D596" s="10" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E596" s="8">
         <v>5</v>
@@ -40732,7 +40773,7 @@
         <v>1166</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -40757,7 +40798,7 @@
         <v>1166</v>
       </c>
       <c r="D599" s="10" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E599" s="14">
         <v>2</v>
@@ -40782,7 +40823,7 @@
         <v>1166</v>
       </c>
       <c r="D600" s="15" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E600" s="14">
         <v>2</v>
@@ -40832,7 +40873,7 @@
         <v>1166</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E602" s="14">
         <v>5</v>
@@ -40882,7 +40923,7 @@
         <v>1166</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E604" s="14">
         <v>5</v>
@@ -40907,7 +40948,7 @@
         <v>1166</v>
       </c>
       <c r="D605" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E605" s="14">
         <v>2</v>
@@ -40932,7 +40973,7 @@
         <v>1166</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E606" s="14">
         <v>2</v>
@@ -40982,7 +41023,7 @@
         <v>1166</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E608" s="8">
         <v>5</v>
@@ -41032,7 +41073,7 @@
         <v>1166</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -41057,7 +41098,7 @@
         <v>1166</v>
       </c>
       <c r="D611" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E611" s="14">
         <v>2</v>
@@ -41082,7 +41123,7 @@
         <v>1166</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E612" s="14">
         <v>2</v>
@@ -41132,7 +41173,7 @@
         <v>1166</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E614" s="8">
         <v>5</v>
@@ -41182,7 +41223,7 @@
         <v>1166</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -41207,7 +41248,7 @@
         <v>1166</v>
       </c>
       <c r="D617" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E617" s="14">
         <v>2</v>
@@ -41232,7 +41273,7 @@
         <v>1166</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E618" s="14">
         <v>2</v>
@@ -41282,7 +41323,7 @@
         <v>1166</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E620" s="8">
         <v>5</v>
@@ -41332,7 +41373,7 @@
         <v>1166</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E622" s="8">
         <v>5</v>
@@ -41357,7 +41398,7 @@
         <v>1166</v>
       </c>
       <c r="D623" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E623" s="14">
         <v>2</v>
@@ -41382,7 +41423,7 @@
         <v>1166</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -41432,7 +41473,7 @@
         <v>1166</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E626" s="8">
         <v>5</v>
@@ -41482,7 +41523,7 @@
         <v>1166</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E628" s="8">
         <v>5</v>
@@ -41507,7 +41548,7 @@
         <v>1166</v>
       </c>
       <c r="D629" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E629" s="14">
         <v>2</v>
@@ -41532,7 +41573,7 @@
         <v>1166</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E630" s="14">
         <v>2</v>
@@ -42589,7 +42630,7 @@
         <v>1166</v>
       </c>
       <c r="D673" s="10" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E673" s="8">
         <v>2</v>
@@ -44138,7 +44179,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
@@ -44338,7 +44379,7 @@
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
@@ -45879,7 +45920,7 @@
         <v>1043</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -45954,7 +45995,7 @@
         <v>1043</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -46304,7 +46345,7 @@
         <v>1043</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -46329,7 +46370,7 @@
         <v>1043</v>
       </c>
       <c r="D823" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E823" s="14">
         <v>2</v>
@@ -46429,7 +46470,7 @@
         <v>1043</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E827" s="9">
         <v>5</v>
@@ -46479,7 +46520,7 @@
         <v>1043</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -46604,7 +46645,7 @@
         <v>1043</v>
       </c>
       <c r="D834" s="9" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E834" s="9">
         <v>5</v>
@@ -46654,7 +46695,7 @@
         <v>1043</v>
       </c>
       <c r="D836" s="9" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -46704,7 +46745,7 @@
         <v>1043</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E838" s="9">
         <v>2</v>
@@ -46726,10 +46767,10 @@
         <v>336</v>
       </c>
       <c r="C839" s="98" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D839" s="99" t="s">
         <v>1840</v>
-      </c>
-      <c r="D839" s="99" t="s">
-        <v>1841</v>
       </c>
       <c r="E839" s="98">
         <v>5</v>
@@ -46754,7 +46795,7 @@
         <v>1043</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E840" s="9">
         <v>5</v>
@@ -46779,16 +46820,16 @@
         <v>1043</v>
       </c>
       <c r="D841" s="107" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E841" s="106">
+        <v>2</v>
+      </c>
+      <c r="F841" s="106">
+        <v>1</v>
+      </c>
+      <c r="G841" s="107" t="s">
         <v>1851</v>
-      </c>
-      <c r="E841" s="106">
-        <v>2</v>
-      </c>
-      <c r="F841" s="106">
-        <v>1</v>
-      </c>
-      <c r="G841" s="107" t="s">
-        <v>1852</v>
       </c>
       <c r="H841" s="8"/>
       <c r="I841" s="8"/>
@@ -46813,7 +46854,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="107" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="H842" s="8"/>
       <c r="I842" s="8"/>
@@ -46838,7 +46879,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="106" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="H843" s="8"/>
       <c r="I843" s="8"/>
@@ -46854,7 +46895,7 @@
         <v>1043</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E844" s="14">
         <v>5</v>
@@ -46863,7 +46904,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="14" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="H844" s="8"/>
       <c r="I844" s="8"/>
@@ -46876,19 +46917,19 @@
         <v>339</v>
       </c>
       <c r="C845" s="10" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D845" s="10" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E845" s="8">
+        <v>2</v>
+      </c>
+      <c r="F845" s="8">
+        <v>1</v>
+      </c>
+      <c r="G845" s="10" t="s">
         <v>1870</v>
-      </c>
-      <c r="D845" s="10" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E845" s="8">
-        <v>2</v>
-      </c>
-      <c r="F845" s="8">
-        <v>1</v>
-      </c>
-      <c r="G845" s="10" t="s">
-        <v>1871</v>
       </c>
       <c r="H845" s="8" t="s">
         <v>870</v>
@@ -46908,7 +46949,7 @@
         <v>1170</v>
       </c>
       <c r="D846" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E846" s="8">
         <v>5</v>
@@ -46917,7 +46958,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="10" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="H846" s="8"/>
       <c r="I846" s="8"/>
@@ -46933,7 +46974,7 @@
         <v>1170</v>
       </c>
       <c r="D847" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E847" s="8">
         <v>2</v>
@@ -46942,7 +46983,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="H847" s="8" t="s">
         <v>874</v>
@@ -46962,16 +47003,16 @@
         <v>1043</v>
       </c>
       <c r="D848" s="111" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E848" s="110">
+        <v>2</v>
+      </c>
+      <c r="F848" s="110">
+        <v>1</v>
+      </c>
+      <c r="G848" s="111" t="s">
         <v>1923</v>
-      </c>
-      <c r="E848" s="110">
-        <v>2</v>
-      </c>
-      <c r="F848" s="110">
-        <v>1</v>
-      </c>
-      <c r="G848" s="111" t="s">
-        <v>1924</v>
       </c>
       <c r="H848" s="8"/>
       <c r="I848" s="8"/>
@@ -46996,7 +47037,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="111" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="H849" s="8"/>
       <c r="I849" s="8"/>
@@ -47012,7 +47053,7 @@
         <v>1043</v>
       </c>
       <c r="D850" s="111" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E850" s="110">
         <v>2</v>
@@ -47046,7 +47087,7 @@
         <v>2</v>
       </c>
       <c r="G851" s="111" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="H851" s="8"/>
       <c r="I851" s="8"/>
@@ -47062,7 +47103,7 @@
         <v>1043</v>
       </c>
       <c r="D852" s="111" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E852" s="110">
         <v>2</v>
@@ -47071,7 +47112,7 @@
         <v>3</v>
       </c>
       <c r="G852" s="111" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
@@ -47096,7 +47137,7 @@
         <v>3</v>
       </c>
       <c r="G853" s="111" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="H853" s="8"/>
       <c r="I853" s="8"/>
@@ -47112,7 +47153,7 @@
         <v>1043</v>
       </c>
       <c r="D854" s="110" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E854" s="110">
         <v>2</v>
@@ -47121,7 +47162,7 @@
         <v>4</v>
       </c>
       <c r="G854" s="111" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="H854" s="8"/>
       <c r="I854" s="8"/>
@@ -47146,7 +47187,7 @@
         <v>4</v>
       </c>
       <c r="G855" s="111" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="856" spans="1:9" s="8" customFormat="1">
@@ -47157,7 +47198,7 @@
         <v>343</v>
       </c>
       <c r="C856" s="53" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D856" s="9">
         <v>1</v>
@@ -47169,7 +47210,7 @@
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="857" spans="1:9" s="8" customFormat="1">
@@ -47180,10 +47221,10 @@
         <v>343</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D857" s="15" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="E857" s="8">
         <v>5</v>
@@ -47192,7 +47233,7 @@
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="858" spans="1:9" s="110" customFormat="1">
@@ -47203,7 +47244,7 @@
         <v>343</v>
       </c>
       <c r="C858" s="53" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D858" s="9">
         <v>9</v>
@@ -47215,7 +47256,7 @@
         <v>2</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="H858" s="8"/>
       <c r="I858" s="8"/>
@@ -47231,7 +47272,7 @@
         <v>1170</v>
       </c>
       <c r="D859" s="15" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E859" s="8">
         <v>5</v>
@@ -47240,7 +47281,7 @@
         <v>2</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H859" s="8"/>
       <c r="I859" s="8"/>
@@ -47256,7 +47297,7 @@
         <v>1170</v>
       </c>
       <c r="D860" s="15" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E860" s="14">
         <v>2</v>
@@ -47265,7 +47306,7 @@
         <v>3</v>
       </c>
       <c r="G860" s="15" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
@@ -47281,7 +47322,7 @@
         <v>1170</v>
       </c>
       <c r="D861" s="15" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E861" s="14">
         <v>2</v>
@@ -47290,7 +47331,7 @@
         <v>4</v>
       </c>
       <c r="G861" s="15" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
@@ -47306,7 +47347,7 @@
         <v>863</v>
       </c>
       <c r="D862" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E862" s="8">
         <v>5</v>
@@ -47356,7 +47397,7 @@
         <v>1043</v>
       </c>
       <c r="D864" s="10" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E864" s="8">
         <v>2</v>
@@ -47406,7 +47447,7 @@
         <v>863</v>
       </c>
       <c r="D866" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E866" s="8">
         <v>2</v>
@@ -47456,7 +47497,7 @@
         <v>1043</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E868" s="8">
         <v>2</v>
@@ -47506,7 +47547,7 @@
         <v>1166</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E870" s="8">
         <v>2</v>
@@ -47515,7 +47556,7 @@
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="H870" s="8"/>
       <c r="I870" s="8"/>
@@ -47531,7 +47572,7 @@
         <v>1043</v>
       </c>
       <c r="D871" s="9" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E871" s="9">
         <v>2</v>
@@ -47540,7 +47581,7 @@
         <v>2</v>
       </c>
       <c r="G871" s="53" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
@@ -47556,7 +47597,7 @@
         <v>1043</v>
       </c>
       <c r="D872" s="53" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E872" s="9">
         <v>2</v>
@@ -47565,7 +47606,7 @@
         <v>3</v>
       </c>
       <c r="G872" s="53" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="873" spans="1:9" s="8" customFormat="1">
@@ -47579,7 +47620,7 @@
         <v>1043</v>
       </c>
       <c r="D873" s="53" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E873" s="9">
         <v>2</v>
@@ -47588,7 +47629,7 @@
         <v>4</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="874" spans="1:9" s="8" customFormat="1">
@@ -47602,7 +47643,7 @@
         <v>1170</v>
       </c>
       <c r="D874" s="15" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
@@ -47611,7 +47652,7 @@
         <v>1</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="875" spans="1:9" s="8" customFormat="1">
@@ -47625,7 +47666,7 @@
         <v>1166</v>
       </c>
       <c r="D875" s="15" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E875" s="8">
         <v>5</v>
@@ -47634,7 +47675,7 @@
         <v>1</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="876" spans="1:9" s="8" customFormat="1">
@@ -47657,7 +47698,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="8" customFormat="1">
@@ -47671,7 +47712,7 @@
         <v>1170</v>
       </c>
       <c r="D877" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -47694,7 +47735,7 @@
         <v>1166</v>
       </c>
       <c r="D878" s="15" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E878" s="8">
         <v>5</v>
@@ -47703,7 +47744,7 @@
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -47717,7 +47758,7 @@
         <v>1166</v>
       </c>
       <c r="D879" s="15" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E879" s="8">
         <v>2</v>
@@ -47726,7 +47767,7 @@
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="880" spans="1:9">
@@ -47737,7 +47778,7 @@
         <v>352</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D880" s="15" t="s">
         <v>1624</v>
@@ -47749,7 +47790,7 @@
         <v>2</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H880" s="8"/>
       <c r="I880" s="8"/>
@@ -47765,7 +47806,7 @@
         <v>1166</v>
       </c>
       <c r="D881" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -47774,7 +47815,7 @@
         <v>3</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="H881" s="8"/>
       <c r="I881" s="8"/>
@@ -47787,19 +47828,19 @@
         <v>353</v>
       </c>
       <c r="C882" s="10" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D882" s="15" t="s">
         <v>1977</v>
       </c>
-      <c r="D882" s="15" t="s">
+      <c r="E882" s="8">
+        <v>2</v>
+      </c>
+      <c r="F882" s="8">
+        <v>1</v>
+      </c>
+      <c r="G882" s="10" t="s">
         <v>1978</v>
-      </c>
-      <c r="E882" s="8">
-        <v>2</v>
-      </c>
-      <c r="F882" s="8">
-        <v>1</v>
-      </c>
-      <c r="G882" s="10" t="s">
-        <v>1979</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -47815,7 +47856,7 @@
         <v>1166</v>
       </c>
       <c r="D883" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E883" s="8">
         <v>5</v>
@@ -47824,7 +47865,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -47840,7 +47881,7 @@
         <v>1043</v>
       </c>
       <c r="D884" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E884" s="8">
         <v>5</v>
@@ -47874,7 +47915,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -47890,7 +47931,7 @@
         <v>1166</v>
       </c>
       <c r="D886" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E886" s="14">
         <v>2</v>
@@ -47924,7 +47965,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -47940,7 +47981,7 @@
         <v>1166</v>
       </c>
       <c r="D888" s="15" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E888" s="14">
         <v>2</v>
@@ -47965,7 +48006,7 @@
         <v>1166</v>
       </c>
       <c r="D889" s="53" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E889" s="9">
         <v>5</v>
@@ -47974,7 +48015,7 @@
         <v>1</v>
       </c>
       <c r="G889" s="53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -47999,7 +48040,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="53" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -48015,7 +48056,7 @@
         <v>1166</v>
       </c>
       <c r="D891" s="53" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E891" s="9">
         <v>5</v>
@@ -48024,7 +48065,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -48049,7 +48090,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="53" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -48074,7 +48115,7 @@
         <v>1</v>
       </c>
       <c r="G893" s="53" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -48088,7 +48129,7 @@
         <v>1166</v>
       </c>
       <c r="D894" s="53" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E894" s="9">
         <v>5</v>
@@ -48097,7 +48138,7 @@
         <v>1</v>
       </c>
       <c r="G894" s="53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
@@ -48122,7 +48163,7 @@
         <v>1</v>
       </c>
       <c r="G895" s="53" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -48147,7 +48188,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="53" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -48163,7 +48204,7 @@
         <v>1166</v>
       </c>
       <c r="D897" s="53" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E897" s="9">
         <v>5</v>
@@ -48172,7 +48213,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -48197,7 +48238,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="53" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -48213,16 +48254,16 @@
         <v>1166</v>
       </c>
       <c r="D899" s="15" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E899" s="14">
+        <v>2</v>
+      </c>
+      <c r="F899" s="14">
+        <v>1</v>
+      </c>
+      <c r="G899" s="15" t="s">
         <v>1993</v>
-      </c>
-      <c r="E899" s="14">
-        <v>2</v>
-      </c>
-      <c r="F899" s="14">
-        <v>1</v>
-      </c>
-      <c r="G899" s="15" t="s">
-        <v>1994</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -48247,7 +48288,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="15" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -48263,16 +48304,16 @@
         <v>1166</v>
       </c>
       <c r="D901" s="15" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E901" s="14">
+        <v>2</v>
+      </c>
+      <c r="F901" s="14">
+        <v>1</v>
+      </c>
+      <c r="G901" s="15" t="s">
         <v>1993</v>
-      </c>
-      <c r="E901" s="14">
-        <v>2</v>
-      </c>
-      <c r="F901" s="14">
-        <v>1</v>
-      </c>
-      <c r="G901" s="15" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="8" customFormat="1">
@@ -48295,7 +48336,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="15" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
@@ -48318,7 +48359,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="15" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -48332,16 +48373,16 @@
         <v>1166</v>
       </c>
       <c r="D904" s="15" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E904" s="14">
+        <v>2</v>
+      </c>
+      <c r="F904" s="14">
+        <v>1</v>
+      </c>
+      <c r="G904" s="15" t="s">
         <v>1993</v>
-      </c>
-      <c r="E904" s="14">
-        <v>2</v>
-      </c>
-      <c r="F904" s="14">
-        <v>1</v>
-      </c>
-      <c r="G904" s="15" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -48364,7 +48405,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="15" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -48387,7 +48428,7 @@
         <v>1</v>
       </c>
       <c r="G906" s="15" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -48401,16 +48442,16 @@
         <v>1166</v>
       </c>
       <c r="D907" s="15" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E907" s="14">
+        <v>2</v>
+      </c>
+      <c r="F907" s="14">
+        <v>1</v>
+      </c>
+      <c r="G907" s="15" t="s">
         <v>1993</v>
-      </c>
-      <c r="E907" s="14">
-        <v>2</v>
-      </c>
-      <c r="F907" s="14">
-        <v>1</v>
-      </c>
-      <c r="G907" s="15" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -48433,7 +48474,7 @@
         <v>1</v>
       </c>
       <c r="G908" s="15" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -48447,7 +48488,7 @@
         <v>1166</v>
       </c>
       <c r="D909" s="15" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E909" s="14">
         <v>2</v>
@@ -48456,7 +48497,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="15" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -48479,7 +48520,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -48493,7 +48534,7 @@
         <v>1166</v>
       </c>
       <c r="D911" s="15" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E911" s="14">
         <v>2</v>
@@ -48502,7 +48543,7 @@
         <v>2</v>
       </c>
       <c r="G911" s="15" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -48525,7 +48566,7 @@
         <v>2</v>
       </c>
       <c r="G912" s="15" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -48548,7 +48589,7 @@
         <v>1</v>
       </c>
       <c r="G913" s="15" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -48571,10 +48612,32 @@
         <v>1</v>
       </c>
       <c r="G914" s="15" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="915" spans="1:7" s="8" customFormat="1"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" s="8" customFormat="1">
+      <c r="A915" s="8">
+        <v>914</v>
+      </c>
+      <c r="B915" s="8">
+        <v>367</v>
+      </c>
+      <c r="C915" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D915" s="8" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E915" s="8">
+        <v>5</v>
+      </c>
+      <c r="F915" s="8">
+        <v>1</v>
+      </c>
+      <c r="G915" s="8" t="s">
+        <v>2019</v>
+      </c>
+    </row>
     <row r="916" spans="1:7" s="8" customFormat="1"/>
     <row r="917" spans="1:7" s="8" customFormat="1"/>
     <row r="918" spans="1:7" s="8" customFormat="1"/>
@@ -48601,8 +48664,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -48736,7 +48799,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>895</v>
@@ -48759,7 +48822,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1750</v>
@@ -48788,7 +48851,7 @@
         <v>895</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -48805,13 +48868,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -48820,7 +48883,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -48828,13 +48891,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -48843,7 +48906,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -48851,13 +48914,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -48866,7 +48929,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.5/permission_server_config.xlsx
+++ b/config_1.5/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4691" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="2026">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9347,6 +9347,30 @@
   </si>
   <si>
     <t>非CPS</t>
+  </si>
+  <si>
+    <t>vip_game_award</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip赢金挑战（显示）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不等于冲金鸡渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不等于冲金鸡渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10199,11 +10223,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q445"/>
+  <dimension ref="A1:Q446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
+      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C447" sqref="C447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -14841,6 +14865,17 @@
     <row r="445" spans="1:3">
       <c r="A445" s="27"/>
       <c r="B445" s="27"/>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="27" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B446" s="27" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C446" s="3">
+        <v>368</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -26699,7 +26734,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C895" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D915" sqref="D915"/>
+      <selection pane="bottomRight" activeCell="B916" sqref="B916:B917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -48638,8 +48673,52 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="916" spans="1:7" s="8" customFormat="1"/>
-    <row r="917" spans="1:7" s="8" customFormat="1"/>
+    <row r="916" spans="1:7" s="8" customFormat="1">
+      <c r="A916" s="8">
+        <v>915</v>
+      </c>
+      <c r="B916" s="8">
+        <v>368</v>
+      </c>
+      <c r="C916" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D916" s="15" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E916" s="14">
+        <v>2</v>
+      </c>
+      <c r="F916" s="14">
+        <v>1</v>
+      </c>
+      <c r="G916" s="15" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" s="8" customFormat="1">
+      <c r="A917" s="8">
+        <v>916</v>
+      </c>
+      <c r="B917" s="8">
+        <v>368</v>
+      </c>
+      <c r="C917" s="15" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D917" s="15" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E917" s="14">
+        <v>2</v>
+      </c>
+      <c r="F917" s="14">
+        <v>2</v>
+      </c>
+      <c r="G917" s="15" t="s">
+        <v>2025</v>
+      </c>
+    </row>
     <row r="918" spans="1:7" s="8" customFormat="1"/>
     <row r="919" spans="1:7" s="8" customFormat="1"/>
     <row r="920" spans="1:7" s="8" customFormat="1"/>

--- a/config_1.5/permission_server_config.xlsx
+++ b/config_1.5/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -9326,10 +9326,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"vivo","xiaomi","yyb",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao","cjj_dandanzhuan",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9370,6 +9366,10 @@
   </si>
   <si>
     <t>不等于冲金鸡渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vivo","xiaomi","yyb_hlttby",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -14868,10 +14868,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="27" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B446" s="27" t="s">
         <v>2020</v>
-      </c>
-      <c r="B446" s="27" t="s">
-        <v>2021</v>
       </c>
       <c r="C446" s="3">
         <v>368</v>
@@ -26105,7 +26105,7 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D332" s="101" t="s">
         <v>1836</v>
@@ -26691,7 +26691,7 @@
         <v>1</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D350" s="16" t="s">
         <v>1836</v>
@@ -26730,7 +26730,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I929"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C895" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -48670,7 +48670,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="8" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="8" customFormat="1">
@@ -48693,7 +48693,7 @@
         <v>1</v>
       </c>
       <c r="G916" s="15" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="8" customFormat="1">
@@ -48704,19 +48704,19 @@
         <v>368</v>
       </c>
       <c r="C917" s="15" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D917" s="15" t="s">
         <v>2023</v>
       </c>
-      <c r="D917" s="15" t="s">
+      <c r="E917" s="14">
+        <v>2</v>
+      </c>
+      <c r="F917" s="14">
+        <v>2</v>
+      </c>
+      <c r="G917" s="15" t="s">
         <v>2024</v>
-      </c>
-      <c r="E917" s="14">
-        <v>2</v>
-      </c>
-      <c r="F917" s="14">
-        <v>2</v>
-      </c>
-      <c r="G917" s="15" t="s">
-        <v>2025</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="8" customFormat="1"/>
@@ -48743,8 +48743,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -48930,7 +48930,7 @@
         <v>895</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -48953,7 +48953,7 @@
         <v>895</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -48976,7 +48976,7 @@
         <v>895</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E10">
         <v>2</v>

--- a/config_1.5/permission_server_config.xlsx
+++ b/config_1.5/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="2026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="2025">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9210,10 +9210,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>充值大等1元</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9298,78 +9294,78 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>actp_buy_gift_bag_10411</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10412</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP11钜惠礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP12钜惠礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP等级11</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP等级12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao","cjj_dandanzhuan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao","cjj_dandanzhuan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_034_xyxfl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非CPS</t>
+  </si>
+  <si>
+    <t>vip_game_award</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip赢金挑战（显示）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不等于冲金鸡渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>3dby_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_buy_gift_bag_10411</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_10412</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP11钜惠礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP12钜惠礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP等级11</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP等级12</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao","cjj_dandanzhuan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao","cjj_dandanzhuan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_034_xyxfl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_041_xyxfl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>非CPS</t>
-  </si>
-  <si>
-    <t>vip_game_award</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip赢金挑战（显示）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>不等于冲金鸡渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>share_condition</t>
+    <t>"vivo","xiaomi","yyb_hlttby",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3dby_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不等于冲金鸡渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"vivo","xiaomi","yyb_hlttby",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -14853,10 +14849,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B444" s="27" t="s">
         <v>1987</v>
-      </c>
-      <c r="B444" s="27" t="s">
-        <v>1988</v>
       </c>
       <c r="C444" s="3">
         <v>355</v>
@@ -14868,10 +14864,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="27" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B446" s="27" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C446" s="3">
         <v>368</v>
@@ -26105,7 +26101,7 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D332" s="101" t="s">
         <v>1836</v>
@@ -26256,7 +26252,7 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
@@ -26339,10 +26335,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="79" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D339" s="30" t="s">
         <v>1989</v>
-      </c>
-      <c r="D339" s="30" t="s">
-        <v>1990</v>
       </c>
       <c r="G339" s="26">
         <v>356</v>
@@ -26371,10 +26367,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="79" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G340" s="26">
         <v>357</v>
@@ -26403,10 +26399,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="79" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G341" s="26">
         <v>358</v>
@@ -26435,10 +26431,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="79" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G342" s="26">
         <v>359</v>
@@ -26467,10 +26463,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="79" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G343" s="26">
         <v>360</v>
@@ -26499,10 +26495,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="79" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G344" s="26">
         <v>361</v>
@@ -26531,10 +26527,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="79" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G345" s="26">
         <v>362</v>
@@ -26563,10 +26559,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="79" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D346" s="30" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G346" s="26">
         <v>363</v>
@@ -26595,10 +26591,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="79" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D347" s="30" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G347" s="26">
         <v>364</v>
@@ -26627,10 +26623,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="30" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D348" s="92" t="s">
         <v>2008</v>
-      </c>
-      <c r="D348" s="92" t="s">
-        <v>2010</v>
       </c>
       <c r="G348" s="26">
         <v>365</v>
@@ -26659,10 +26655,10 @@
         <v>1</v>
       </c>
       <c r="C349" s="30" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D349" s="92" t="s">
         <v>2009</v>
-      </c>
-      <c r="D349" s="92" t="s">
-        <v>2011</v>
       </c>
       <c r="G349" s="26">
         <v>366</v>
@@ -26691,7 +26687,7 @@
         <v>1</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D350" s="16" t="s">
         <v>1836</v>
@@ -26730,11 +26726,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I929"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C895" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B916" sqref="B916:B917"/>
+      <selection pane="bottomRight" activeCell="E379" sqref="E379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -35534,10 +35530,10 @@
         <v>1166</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>1985</v>
+        <v>1624</v>
       </c>
       <c r="E378" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F378" s="8">
         <v>1</v>
@@ -47950,7 +47946,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -48000,7 +47996,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -48041,7 +48037,7 @@
         <v>1166</v>
       </c>
       <c r="D889" s="53" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E889" s="9">
         <v>5</v>
@@ -48050,7 +48046,7 @@
         <v>1</v>
       </c>
       <c r="G889" s="53" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -48075,7 +48071,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -48091,7 +48087,7 @@
         <v>1166</v>
       </c>
       <c r="D891" s="53" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E891" s="9">
         <v>5</v>
@@ -48100,7 +48096,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="53" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -48125,7 +48121,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -48150,7 +48146,7 @@
         <v>1</v>
       </c>
       <c r="G893" s="53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -48164,7 +48160,7 @@
         <v>1166</v>
       </c>
       <c r="D894" s="53" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E894" s="9">
         <v>5</v>
@@ -48173,7 +48169,7 @@
         <v>1</v>
       </c>
       <c r="G894" s="53" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
@@ -48198,7 +48194,7 @@
         <v>1</v>
       </c>
       <c r="G895" s="53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -48223,7 +48219,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -48239,7 +48235,7 @@
         <v>1166</v>
       </c>
       <c r="D897" s="53" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E897" s="9">
         <v>5</v>
@@ -48248,7 +48244,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="53" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -48273,7 +48269,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -48289,16 +48285,16 @@
         <v>1166</v>
       </c>
       <c r="D899" s="15" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E899" s="14">
+        <v>2</v>
+      </c>
+      <c r="F899" s="14">
+        <v>1</v>
+      </c>
+      <c r="G899" s="15" t="s">
         <v>1992</v>
-      </c>
-      <c r="E899" s="14">
-        <v>2</v>
-      </c>
-      <c r="F899" s="14">
-        <v>1</v>
-      </c>
-      <c r="G899" s="15" t="s">
-        <v>1993</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -48323,7 +48319,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="15" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -48339,16 +48335,16 @@
         <v>1166</v>
       </c>
       <c r="D901" s="15" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E901" s="14">
+        <v>2</v>
+      </c>
+      <c r="F901" s="14">
+        <v>1</v>
+      </c>
+      <c r="G901" s="15" t="s">
         <v>1992</v>
-      </c>
-      <c r="E901" s="14">
-        <v>2</v>
-      </c>
-      <c r="F901" s="14">
-        <v>1</v>
-      </c>
-      <c r="G901" s="15" t="s">
-        <v>1993</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="8" customFormat="1">
@@ -48371,7 +48367,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="15" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
@@ -48394,7 +48390,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="15" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -48408,16 +48404,16 @@
         <v>1166</v>
       </c>
       <c r="D904" s="15" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E904" s="14">
+        <v>2</v>
+      </c>
+      <c r="F904" s="14">
+        <v>1</v>
+      </c>
+      <c r="G904" s="15" t="s">
         <v>1992</v>
-      </c>
-      <c r="E904" s="14">
-        <v>2</v>
-      </c>
-      <c r="F904" s="14">
-        <v>1</v>
-      </c>
-      <c r="G904" s="15" t="s">
-        <v>1993</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -48440,7 +48436,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="15" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -48463,7 +48459,7 @@
         <v>1</v>
       </c>
       <c r="G906" s="15" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -48477,16 +48473,16 @@
         <v>1166</v>
       </c>
       <c r="D907" s="15" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E907" s="14">
+        <v>2</v>
+      </c>
+      <c r="F907" s="14">
+        <v>1</v>
+      </c>
+      <c r="G907" s="15" t="s">
         <v>1992</v>
-      </c>
-      <c r="E907" s="14">
-        <v>2</v>
-      </c>
-      <c r="F907" s="14">
-        <v>1</v>
-      </c>
-      <c r="G907" s="15" t="s">
-        <v>1993</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -48509,7 +48505,7 @@
         <v>1</v>
       </c>
       <c r="G908" s="15" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -48523,7 +48519,7 @@
         <v>1166</v>
       </c>
       <c r="D909" s="15" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E909" s="14">
         <v>2</v>
@@ -48532,7 +48528,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="15" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -48555,7 +48551,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -48569,7 +48565,7 @@
         <v>1166</v>
       </c>
       <c r="D911" s="15" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E911" s="14">
         <v>2</v>
@@ -48578,7 +48574,7 @@
         <v>2</v>
       </c>
       <c r="G911" s="15" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -48601,7 +48597,7 @@
         <v>2</v>
       </c>
       <c r="G912" s="15" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -48624,7 +48620,7 @@
         <v>1</v>
       </c>
       <c r="G913" s="15" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -48647,7 +48643,7 @@
         <v>1</v>
       </c>
       <c r="G914" s="15" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1">
@@ -48670,7 +48666,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="8" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="8" customFormat="1">
@@ -48693,7 +48689,7 @@
         <v>1</v>
       </c>
       <c r="G916" s="15" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="8" customFormat="1">
@@ -48704,19 +48700,19 @@
         <v>368</v>
       </c>
       <c r="C917" s="15" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D917" s="15" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E917" s="14">
+        <v>2</v>
+      </c>
+      <c r="F917" s="14">
+        <v>2</v>
+      </c>
+      <c r="G917" s="15" t="s">
         <v>2022</v>
-      </c>
-      <c r="D917" s="15" t="s">
-        <v>2023</v>
-      </c>
-      <c r="E917" s="14">
-        <v>2</v>
-      </c>
-      <c r="F917" s="14">
-        <v>2</v>
-      </c>
-      <c r="G917" s="15" t="s">
-        <v>2024</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="8" customFormat="1"/>
@@ -48743,8 +48739,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -48901,7 +48897,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>2006</v>
+        <v>2024</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1750</v>
@@ -48930,7 +48926,7 @@
         <v>895</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -48947,13 +48943,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -48976,7 +48972,7 @@
         <v>895</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E10">
         <v>2</v>

--- a/config_1.5/permission_server_config.xlsx
+++ b/config_1.5/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="2027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4700" uniqueCount="2030">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9387,6 +9387,31 @@
   </si>
   <si>
     <t>VIP2礼包（冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip10_email_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10邮件权限</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不等于冲金鸡渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10240,11 +10265,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q449"/>
+  <dimension ref="A1:Q451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A448" sqref="A448:C449"/>
+      <selection pane="bottomLeft" activeCell="C452" sqref="C452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -14916,6 +14941,17 @@
         <v>360</v>
       </c>
     </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="27" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B451" s="27" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C451" s="3">
+        <v>369</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14928,11 +14964,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D328" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A346" sqref="A346"/>
+      <selection pane="bottomRight" activeCell="D344" sqref="D344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -26705,11 +26741,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I929"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C889" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G917" sqref="A916:G917"/>
+      <selection pane="bottomRight" activeCell="F918" sqref="F918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -48694,7 +48730,29 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="918" spans="1:7" s="8" customFormat="1"/>
+    <row r="918" spans="1:7" s="8" customFormat="1">
+      <c r="A918" s="8">
+        <v>917</v>
+      </c>
+      <c r="B918" s="8">
+        <v>369</v>
+      </c>
+      <c r="C918" s="15" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D918" s="15" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E918" s="14">
+        <v>5</v>
+      </c>
+      <c r="F918" s="14">
+        <v>1</v>
+      </c>
+      <c r="G918" s="15" t="s">
+        <v>2029</v>
+      </c>
+    </row>
     <row r="919" spans="1:7" s="8" customFormat="1"/>
     <row r="920" spans="1:7" s="8" customFormat="1"/>
     <row r="921" spans="1:7" s="8" customFormat="1"/>

--- a/config_1.5/permission_server_config.xlsx
+++ b/config_1.5/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4700" uniqueCount="2030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4702" uniqueCount="2031">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9412,6 +9412,10 @@
   </si>
   <si>
     <t>不等于冲金鸡渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP等级10</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -48753,7 +48757,29 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="919" spans="1:7" s="8" customFormat="1"/>
+    <row r="919" spans="1:7" s="8" customFormat="1">
+      <c r="A919" s="8">
+        <v>918</v>
+      </c>
+      <c r="B919" s="8">
+        <v>369</v>
+      </c>
+      <c r="C919" s="15" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D919" s="15">
+        <v>10</v>
+      </c>
+      <c r="E919" s="14">
+        <v>2</v>
+      </c>
+      <c r="F919" s="14">
+        <v>1</v>
+      </c>
+      <c r="G919" s="15" t="s">
+        <v>2030</v>
+      </c>
+    </row>
     <row r="920" spans="1:7" s="8" customFormat="1"/>
     <row r="921" spans="1:7" s="8" customFormat="1"/>
     <row r="922" spans="1:7" s="8" customFormat="1"/>

--- a/config_1.5/permission_server_config.xlsx
+++ b/config_1.5/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4702" uniqueCount="2031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4700" uniqueCount="2030">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9412,10 +9412,6 @@
   </si>
   <si>
     <t>不等于冲金鸡渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP等级10</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -26743,13 +26739,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I929"/>
+  <dimension ref="A1:I928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C889" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F918" sqref="F918"/>
+      <selection pane="bottomRight" activeCell="D913" sqref="D913"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -48619,7 +48615,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="913" spans="1:7" s="8" customFormat="1">
+    <row r="913" spans="1:8" s="8" customFormat="1">
       <c r="A913" s="8">
         <v>912</v>
       </c>
@@ -48642,7 +48638,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="914" spans="1:7" s="8" customFormat="1">
+    <row r="914" spans="1:8" s="8" customFormat="1">
       <c r="A914" s="8">
         <v>913</v>
       </c>
@@ -48665,7 +48661,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="915" spans="1:7" s="8" customFormat="1">
+    <row r="915" spans="1:8" s="8" customFormat="1">
       <c r="A915" s="8">
         <v>914</v>
       </c>
@@ -48688,7 +48684,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="916" spans="1:7" s="8" customFormat="1">
+    <row r="916" spans="1:8" s="8" customFormat="1">
       <c r="A916" s="8">
         <v>915</v>
       </c>
@@ -48711,7 +48707,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="917" spans="1:7" s="8" customFormat="1">
+    <row r="917" spans="1:8" s="8" customFormat="1">
       <c r="A917" s="8">
         <v>916</v>
       </c>
@@ -48734,7 +48730,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="918" spans="1:7" s="8" customFormat="1">
+    <row r="918" spans="1:8" s="8" customFormat="1">
       <c r="A918" s="8">
         <v>917</v>
       </c>
@@ -48757,38 +48753,15 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="919" spans="1:7" s="8" customFormat="1">
-      <c r="A919" s="8">
-        <v>918</v>
-      </c>
-      <c r="B919" s="8">
-        <v>369</v>
-      </c>
-      <c r="C919" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D919" s="15">
-        <v>10</v>
-      </c>
-      <c r="E919" s="14">
-        <v>2</v>
-      </c>
-      <c r="F919" s="14">
-        <v>1</v>
-      </c>
-      <c r="G919" s="15" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="920" spans="1:7" s="8" customFormat="1"/>
-    <row r="921" spans="1:7" s="8" customFormat="1"/>
-    <row r="922" spans="1:7" s="8" customFormat="1"/>
-    <row r="929" spans="4:8">
-      <c r="D929" s="8"/>
-      <c r="E929" s="10"/>
-      <c r="F929" s="8"/>
-      <c r="G929" s="8"/>
-      <c r="H929" s="10"/>
+    <row r="919" spans="1:8" s="8" customFormat="1"/>
+    <row r="920" spans="1:8" s="8" customFormat="1"/>
+    <row r="921" spans="1:8" s="8" customFormat="1"/>
+    <row r="928" spans="1:8">
+      <c r="D928" s="8"/>
+      <c r="E928" s="10"/>
+      <c r="F928" s="8"/>
+      <c r="G928" s="8"/>
+      <c r="H928" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
